--- a/biology/Botanique/Juncus/Juncus.xlsx
+++ b/biology/Botanique/Juncus/Juncus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Juncus est un genre végétal de la famille des Juncaceae. C'est le principal genre de joncs. Ce sont des plantes herbacées vivaces vivant en milieu aquatique ou humide. La tige est droite et flexible. On la trouve souvent près des fossés où les sols sont très humides. Elle était utilisée avant la bougie ou la chandelle, pour s'éclairer, elle était trempée dans de la graisse végétale ou animale qu'on laissait ensuite durcir.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Juncus vient du latin jungere, « joindre, attacher », les joncs servant à faire des liens plus ou moins solides[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juncus vient du latin jungere, « joindre, attacher », les joncs servant à faire des liens plus ou moins solides.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Juncus abortivus Chapman
 Juncus acuminatus Michx.
@@ -710,9 +726,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jonc est la seule plante qui absorbe sans dommage le manganèse en excès dans le sol[2]. Par ailleurs, il peut également être utilisé, conjointement à d'autres plantes, dans le cadre de projets de phytoépuration et de piscines écologiques. Il présente l'avantage de bien tolérer des périodes sèches, aussi bien qu'une immersion de 7 à 10 cm[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jonc est la seule plante qui absorbe sans dommage le manganèse en excès dans le sol. Par ailleurs, il peut également être utilisé, conjointement à d'autres plantes, dans le cadre de projets de phytoépuration et de piscines écologiques. Il présente l'avantage de bien tolérer des périodes sèches, aussi bien qu'une immersion de 7 à 10 cm.
 </t>
         </is>
       </c>
